--- a/Reports/SKI_B_SACVT.xlsx
+++ b/Reports/SKI_B_SACVT.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32022D86-CB88-4EE4-91EB-37F35C17B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA539BB5-0BEB-4D82-89D6-35B8D1E19188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3630" windowWidth="10290" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2670" windowWidth="13320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет ЦТ" sheetId="14" r:id="rId1"/>
+    <sheet name="ЦТ" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$127,'Отчет ЦТ'!$A$128:$Q$186</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ЦТ!$A$1:$R$127,ЦТ!$A$128:$Q$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -200,8 +200,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -932,7 +932,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1039,28 +1039,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,170 +1324,170 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1833,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A142" zoomScale="75" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q169" sqref="Q169"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,17 +3541,17 @@
       <c r="E97" s="130"/>
       <c r="F97" s="130"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="139" t="s">
+      <c r="H97" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="I97" s="140"/>
-      <c r="J97" s="140"/>
-      <c r="K97" s="140"/>
-      <c r="L97" s="140"/>
-      <c r="M97" s="140"/>
-      <c r="N97" s="140"/>
-      <c r="O97" s="140"/>
-      <c r="P97" s="141"/>
+      <c r="I97" s="184"/>
+      <c r="J97" s="184"/>
+      <c r="K97" s="184"/>
+      <c r="L97" s="184"/>
+      <c r="M97" s="184"/>
+      <c r="N97" s="184"/>
+      <c r="O97" s="184"/>
+      <c r="P97" s="185"/>
       <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3564,11 +3564,11 @@
       <c r="E98" s="130"/>
       <c r="F98" s="130"/>
       <c r="G98" s="29"/>
-      <c r="H98" s="133" t="s">
+      <c r="H98" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="I98" s="133"/>
-      <c r="J98" s="133"/>
+      <c r="I98" s="186"/>
+      <c r="J98" s="186"/>
       <c r="K98" s="14" t="s">
         <v>46</v>
       </c>
@@ -3577,10 +3577,10 @@
       </c>
       <c r="M98" s="81"/>
       <c r="N98" s="82"/>
-      <c r="O98" s="133" t="s">
+      <c r="O98" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="133"/>
+      <c r="P98" s="186"/>
       <c r="Q98" s="16"/>
     </row>
     <row r="99" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
       <c r="N99" s="55"/>
       <c r="O99" s="55"/>
       <c r="P99" s="55"/>
-      <c r="Q99" s="138"/>
+      <c r="Q99" s="182"/>
     </row>
     <row r="100" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="50"/>
@@ -3618,7 +3618,7 @@
       <c r="N100" s="55"/>
       <c r="O100" s="55"/>
       <c r="P100" s="55"/>
-      <c r="Q100" s="138"/>
+      <c r="Q100" s="182"/>
     </row>
     <row r="101" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="50"/>
@@ -3636,7 +3636,7 @@
       <c r="N101" s="55"/>
       <c r="O101" s="55"/>
       <c r="P101" s="55"/>
-      <c r="Q101" s="138"/>
+      <c r="Q101" s="182"/>
     </row>
     <row r="102" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="50"/>
@@ -3654,7 +3654,7 @@
       <c r="N102" s="55"/>
       <c r="O102" s="55"/>
       <c r="P102" s="55"/>
-      <c r="Q102" s="138"/>
+      <c r="Q102" s="182"/>
     </row>
     <row r="103" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="50"/>
@@ -3672,7 +3672,7 @@
       <c r="N103" s="55"/>
       <c r="O103" s="55"/>
       <c r="P103" s="55"/>
-      <c r="Q103" s="138"/>
+      <c r="Q103" s="182"/>
     </row>
     <row r="104" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -3691,7 +3691,7 @@
       <c r="N104" s="55"/>
       <c r="O104" s="55"/>
       <c r="P104" s="55"/>
-      <c r="Q104" s="138"/>
+      <c r="Q104" s="182"/>
     </row>
     <row r="105" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
@@ -3710,7 +3710,7 @@
       <c r="N105" s="55"/>
       <c r="O105" s="55"/>
       <c r="P105" s="55"/>
-      <c r="Q105" s="138"/>
+      <c r="Q105" s="182"/>
     </row>
     <row r="106" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
@@ -3729,7 +3729,7 @@
       <c r="N106" s="55"/>
       <c r="O106" s="55"/>
       <c r="P106" s="55"/>
-      <c r="Q106" s="138"/>
+      <c r="Q106" s="182"/>
     </row>
     <row r="107" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
@@ -3748,7 +3748,7 @@
       <c r="N107" s="55"/>
       <c r="O107" s="55"/>
       <c r="P107" s="55"/>
-      <c r="Q107" s="138"/>
+      <c r="Q107" s="182"/>
     </row>
     <row r="108" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="N108" s="55"/>
       <c r="O108" s="55"/>
       <c r="P108" s="55"/>
-      <c r="Q108" s="138"/>
+      <c r="Q108" s="182"/>
     </row>
     <row r="109" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
@@ -3786,7 +3786,7 @@
       <c r="N109" s="55"/>
       <c r="O109" s="55"/>
       <c r="P109" s="55"/>
-      <c r="Q109" s="138"/>
+      <c r="Q109" s="182"/>
     </row>
     <row r="110" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -3805,7 +3805,7 @@
       <c r="N110" s="55"/>
       <c r="O110" s="55"/>
       <c r="P110" s="55"/>
-      <c r="Q110" s="138"/>
+      <c r="Q110" s="182"/>
     </row>
     <row r="111" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
@@ -3824,7 +3824,7 @@
       <c r="N111" s="55"/>
       <c r="O111" s="55"/>
       <c r="P111" s="55"/>
-      <c r="Q111" s="138"/>
+      <c r="Q111" s="182"/>
     </row>
     <row r="112" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
@@ -3843,7 +3843,7 @@
       <c r="N112" s="55"/>
       <c r="O112" s="55"/>
       <c r="P112" s="55"/>
-      <c r="Q112" s="138"/>
+      <c r="Q112" s="182"/>
     </row>
     <row r="113" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="50"/>
@@ -3861,7 +3861,7 @@
       <c r="N113" s="55"/>
       <c r="O113" s="55"/>
       <c r="P113" s="55"/>
-      <c r="Q113" s="138"/>
+      <c r="Q113" s="182"/>
     </row>
     <row r="114" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="50"/>
@@ -3879,7 +3879,7 @@
       <c r="N114" s="55"/>
       <c r="O114" s="55"/>
       <c r="P114" s="55"/>
-      <c r="Q114" s="138"/>
+      <c r="Q114" s="182"/>
     </row>
     <row r="115" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="50"/>
@@ -3891,13 +3891,13 @@
       <c r="H115" s="55"/>
       <c r="I115" s="55"/>
       <c r="J115" s="55"/>
-      <c r="K115" s="142"/>
+      <c r="K115" s="187"/>
       <c r="L115" s="55"/>
       <c r="M115" s="55"/>
       <c r="N115" s="55"/>
       <c r="O115" s="55"/>
       <c r="P115" s="55"/>
-      <c r="Q115" s="138"/>
+      <c r="Q115" s="182"/>
     </row>
     <row r="116" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="50"/>
@@ -3909,13 +3909,13 @@
       <c r="H116" s="55"/>
       <c r="I116" s="55"/>
       <c r="J116" s="55"/>
-      <c r="K116" s="142"/>
+      <c r="K116" s="187"/>
       <c r="L116" s="55"/>
       <c r="M116" s="55"/>
       <c r="N116" s="55"/>
       <c r="O116" s="55"/>
       <c r="P116" s="55"/>
-      <c r="Q116" s="138"/>
+      <c r="Q116" s="182"/>
     </row>
     <row r="117" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="50"/>
@@ -3933,7 +3933,7 @@
       <c r="N117" s="55"/>
       <c r="O117" s="55"/>
       <c r="P117" s="55"/>
-      <c r="Q117" s="138"/>
+      <c r="Q117" s="182"/>
     </row>
     <row r="118" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="50"/>
@@ -3951,7 +3951,7 @@
       <c r="N118" s="55"/>
       <c r="O118" s="55"/>
       <c r="P118" s="55"/>
-      <c r="Q118" s="138"/>
+      <c r="Q118" s="182"/>
     </row>
     <row r="121" spans="1:17" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:17" customFormat="1" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4609,119 +4609,119 @@
     </row>
     <row r="161" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="162" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="143" t="s">
+      <c r="B162" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="144"/>
-      <c r="D162" s="144"/>
-      <c r="E162" s="144"/>
-      <c r="F162" s="144"/>
-      <c r="G162" s="145"/>
-      <c r="H162" s="146" t="s">
+      <c r="C162" s="134"/>
+      <c r="D162" s="134"/>
+      <c r="E162" s="134"/>
+      <c r="F162" s="134"/>
+      <c r="G162" s="135"/>
+      <c r="H162" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I162" s="147"/>
-      <c r="J162" s="148"/>
-      <c r="K162" s="146" t="s">
+      <c r="I162" s="152"/>
+      <c r="J162" s="153"/>
+      <c r="K162" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="L162" s="147"/>
-      <c r="M162" s="148"/>
-      <c r="N162" s="149" t="s">
+      <c r="L162" s="152"/>
+      <c r="M162" s="153"/>
+      <c r="N162" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="O162" s="147"/>
-      <c r="P162" s="148"/>
+      <c r="O162" s="152"/>
+      <c r="P162" s="153"/>
     </row>
     <row r="163" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="150"/>
-      <c r="C163" s="151"/>
-      <c r="D163" s="151"/>
-      <c r="E163" s="151"/>
-      <c r="F163" s="151"/>
-      <c r="G163" s="152"/>
-      <c r="H163" s="153"/>
-      <c r="I163" s="154"/>
-      <c r="J163" s="155"/>
-      <c r="K163" s="153"/>
-      <c r="L163" s="154"/>
-      <c r="M163" s="155"/>
-      <c r="N163" s="156"/>
-      <c r="O163" s="157"/>
-      <c r="P163" s="158"/>
+      <c r="B163" s="136"/>
+      <c r="C163" s="137"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="137"/>
+      <c r="F163" s="137"/>
+      <c r="G163" s="138"/>
+      <c r="H163" s="154"/>
+      <c r="I163" s="155"/>
+      <c r="J163" s="156"/>
+      <c r="K163" s="154"/>
+      <c r="L163" s="155"/>
+      <c r="M163" s="156"/>
+      <c r="N163" s="158"/>
+      <c r="O163" s="159"/>
+      <c r="P163" s="160"/>
     </row>
     <row r="164" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="159" t="s">
+      <c r="B164" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C164" s="160"/>
-      <c r="D164" s="160"/>
-      <c r="E164" s="160"/>
-      <c r="F164" s="160"/>
-      <c r="G164" s="161"/>
-      <c r="H164" s="159"/>
-      <c r="I164" s="160"/>
-      <c r="J164" s="161"/>
+      <c r="C164" s="140"/>
+      <c r="D164" s="140"/>
+      <c r="E164" s="140"/>
+      <c r="F164" s="140"/>
+      <c r="G164" s="141"/>
+      <c r="H164" s="139"/>
+      <c r="I164" s="140"/>
+      <c r="J164" s="141"/>
       <c r="K164" s="162"/>
       <c r="L164" s="163"/>
       <c r="M164" s="164"/>
-      <c r="N164" s="146"/>
-      <c r="O164" s="147"/>
-      <c r="P164" s="148"/>
+      <c r="N164" s="151"/>
+      <c r="O164" s="152"/>
+      <c r="P164" s="153"/>
     </row>
     <row r="165" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="165"/>
-      <c r="C165" s="166"/>
-      <c r="D165" s="166"/>
-      <c r="E165" s="166"/>
-      <c r="F165" s="166"/>
-      <c r="G165" s="167"/>
-      <c r="H165" s="168"/>
-      <c r="I165" s="169"/>
-      <c r="J165" s="170"/>
-      <c r="K165" s="171"/>
-      <c r="L165" s="172"/>
-      <c r="M165" s="173"/>
-      <c r="N165" s="153"/>
-      <c r="O165" s="154"/>
-      <c r="P165" s="155"/>
+      <c r="B165" s="142"/>
+      <c r="C165" s="143"/>
+      <c r="D165" s="143"/>
+      <c r="E165" s="143"/>
+      <c r="F165" s="143"/>
+      <c r="G165" s="144"/>
+      <c r="H165" s="148"/>
+      <c r="I165" s="149"/>
+      <c r="J165" s="161"/>
+      <c r="K165" s="165"/>
+      <c r="L165" s="166"/>
+      <c r="M165" s="167"/>
+      <c r="N165" s="154"/>
+      <c r="O165" s="155"/>
+      <c r="P165" s="156"/>
     </row>
     <row r="166" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="174" t="s">
+      <c r="B166" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="175"/>
-      <c r="D166" s="175"/>
-      <c r="E166" s="175"/>
-      <c r="F166" s="175"/>
-      <c r="G166" s="176"/>
-      <c r="H166" s="174"/>
-      <c r="I166" s="175"/>
-      <c r="J166" s="177"/>
-      <c r="K166" s="178"/>
-      <c r="L166" s="179"/>
-      <c r="M166" s="180"/>
-      <c r="N166" s="146"/>
-      <c r="O166" s="147"/>
-      <c r="P166" s="148"/>
+      <c r="C166" s="146"/>
+      <c r="D166" s="146"/>
+      <c r="E166" s="146"/>
+      <c r="F166" s="146"/>
+      <c r="G166" s="147"/>
+      <c r="H166" s="145"/>
+      <c r="I166" s="146"/>
+      <c r="J166" s="168"/>
+      <c r="K166" s="169"/>
+      <c r="L166" s="170"/>
+      <c r="M166" s="171"/>
+      <c r="N166" s="151"/>
+      <c r="O166" s="152"/>
+      <c r="P166" s="153"/>
     </row>
     <row r="167" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
-      <c r="B167" s="168"/>
-      <c r="C167" s="169"/>
-      <c r="D167" s="169"/>
-      <c r="E167" s="169"/>
-      <c r="F167" s="169"/>
-      <c r="G167" s="181"/>
-      <c r="H167" s="168"/>
-      <c r="I167" s="169"/>
-      <c r="J167" s="170"/>
-      <c r="K167" s="171"/>
-      <c r="L167" s="172"/>
-      <c r="M167" s="182"/>
-      <c r="N167" s="153"/>
-      <c r="O167" s="154"/>
-      <c r="P167" s="155"/>
+      <c r="B167" s="148"/>
+      <c r="C167" s="149"/>
+      <c r="D167" s="149"/>
+      <c r="E167" s="149"/>
+      <c r="F167" s="149"/>
+      <c r="G167" s="150"/>
+      <c r="H167" s="148"/>
+      <c r="I167" s="149"/>
+      <c r="J167" s="161"/>
+      <c r="K167" s="165"/>
+      <c r="L167" s="166"/>
+      <c r="M167" s="172"/>
+      <c r="N167" s="154"/>
+      <c r="O167" s="155"/>
+      <c r="P167" s="156"/>
       <c r="Q167"/>
     </row>
     <row r="168" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -4745,12 +4745,12 @@
     </row>
     <row r="169" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
-      <c r="B169" s="134"/>
-      <c r="C169" s="135"/>
-      <c r="D169" s="136"/>
-      <c r="E169" s="137"/>
-      <c r="F169" s="137"/>
-      <c r="G169" s="137"/>
+      <c r="B169" s="173"/>
+      <c r="C169" s="174"/>
+      <c r="D169" s="175"/>
+      <c r="E169" s="176"/>
+      <c r="F169" s="176"/>
+      <c r="G169" s="176"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="11"/>
@@ -4764,130 +4764,130 @@
     </row>
     <row r="170" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="143" t="s">
+      <c r="B170" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C170" s="144"/>
-      <c r="D170" s="144"/>
-      <c r="E170" s="144"/>
-      <c r="F170" s="144"/>
-      <c r="G170" s="145"/>
-      <c r="H170" s="146" t="s">
+      <c r="C170" s="134"/>
+      <c r="D170" s="134"/>
+      <c r="E170" s="134"/>
+      <c r="F170" s="134"/>
+      <c r="G170" s="135"/>
+      <c r="H170" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I170" s="147"/>
-      <c r="J170" s="148" t="s">
+      <c r="I170" s="152"/>
+      <c r="J170" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="K170" s="178" t="s">
+      <c r="K170" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L170" s="179"/>
-      <c r="M170" s="183"/>
-      <c r="N170" s="146" t="s">
+      <c r="L170" s="170"/>
+      <c r="M170" s="177"/>
+      <c r="N170" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="O170" s="147"/>
-      <c r="P170" s="148"/>
+      <c r="O170" s="152"/>
+      <c r="P170" s="153"/>
       <c r="Q170"/>
     </row>
     <row r="171" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
-      <c r="B171" s="150"/>
-      <c r="C171" s="151"/>
-      <c r="D171" s="151"/>
-      <c r="E171" s="151"/>
-      <c r="F171" s="151"/>
-      <c r="G171" s="152"/>
-      <c r="H171" s="153"/>
-      <c r="I171" s="154"/>
-      <c r="J171" s="155"/>
-      <c r="K171" s="171"/>
-      <c r="L171" s="172"/>
-      <c r="M171" s="173"/>
-      <c r="N171" s="153"/>
-      <c r="O171" s="154"/>
-      <c r="P171" s="155"/>
+      <c r="B171" s="136"/>
+      <c r="C171" s="137"/>
+      <c r="D171" s="137"/>
+      <c r="E171" s="137"/>
+      <c r="F171" s="137"/>
+      <c r="G171" s="138"/>
+      <c r="H171" s="154"/>
+      <c r="I171" s="155"/>
+      <c r="J171" s="156"/>
+      <c r="K171" s="165"/>
+      <c r="L171" s="166"/>
+      <c r="M171" s="167"/>
+      <c r="N171" s="154"/>
+      <c r="O171" s="155"/>
+      <c r="P171" s="156"/>
       <c r="Q171"/>
     </row>
     <row r="172" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="B172" s="159" t="s">
+      <c r="B172" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C172" s="160"/>
-      <c r="D172" s="160"/>
-      <c r="E172" s="160"/>
-      <c r="F172" s="160"/>
-      <c r="G172" s="161"/>
-      <c r="H172" s="159"/>
-      <c r="I172" s="160"/>
-      <c r="J172" s="161"/>
+      <c r="C172" s="140"/>
+      <c r="D172" s="140"/>
+      <c r="E172" s="140"/>
+      <c r="F172" s="140"/>
+      <c r="G172" s="141"/>
+      <c r="H172" s="139"/>
+      <c r="I172" s="140"/>
+      <c r="J172" s="141"/>
       <c r="K172" s="162"/>
       <c r="L172" s="163"/>
       <c r="M172" s="164"/>
-      <c r="N172" s="184"/>
-      <c r="O172" s="185"/>
-      <c r="P172" s="186"/>
+      <c r="N172" s="178"/>
+      <c r="O172" s="179"/>
+      <c r="P172" s="180"/>
       <c r="Q172"/>
     </row>
     <row r="173" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
-      <c r="B173" s="165"/>
-      <c r="C173" s="166"/>
-      <c r="D173" s="166"/>
-      <c r="E173" s="166"/>
-      <c r="F173" s="166"/>
-      <c r="G173" s="167"/>
-      <c r="H173" s="168"/>
-      <c r="I173" s="169"/>
-      <c r="J173" s="170"/>
-      <c r="K173" s="171"/>
-      <c r="L173" s="172"/>
-      <c r="M173" s="173"/>
-      <c r="N173" s="187"/>
-      <c r="O173" s="154"/>
-      <c r="P173" s="155"/>
+      <c r="B173" s="142"/>
+      <c r="C173" s="143"/>
+      <c r="D173" s="143"/>
+      <c r="E173" s="143"/>
+      <c r="F173" s="143"/>
+      <c r="G173" s="144"/>
+      <c r="H173" s="148"/>
+      <c r="I173" s="149"/>
+      <c r="J173" s="161"/>
+      <c r="K173" s="165"/>
+      <c r="L173" s="166"/>
+      <c r="M173" s="167"/>
+      <c r="N173" s="181"/>
+      <c r="O173" s="155"/>
+      <c r="P173" s="156"/>
       <c r="Q173"/>
     </row>
     <row r="174" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-      <c r="B174" s="174" t="s">
+      <c r="B174" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="C174" s="175"/>
-      <c r="D174" s="175"/>
-      <c r="E174" s="175"/>
-      <c r="F174" s="175"/>
-      <c r="G174" s="176"/>
-      <c r="H174" s="174"/>
-      <c r="I174" s="175"/>
-      <c r="J174" s="177"/>
-      <c r="K174" s="178"/>
-      <c r="L174" s="179"/>
-      <c r="M174" s="180"/>
-      <c r="N174" s="146"/>
-      <c r="O174" s="147"/>
-      <c r="P174" s="148"/>
+      <c r="C174" s="146"/>
+      <c r="D174" s="146"/>
+      <c r="E174" s="146"/>
+      <c r="F174" s="146"/>
+      <c r="G174" s="147"/>
+      <c r="H174" s="145"/>
+      <c r="I174" s="146"/>
+      <c r="J174" s="168"/>
+      <c r="K174" s="169"/>
+      <c r="L174" s="170"/>
+      <c r="M174" s="171"/>
+      <c r="N174" s="151"/>
+      <c r="O174" s="152"/>
+      <c r="P174" s="153"/>
       <c r="Q174"/>
     </row>
     <row r="175" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
-      <c r="B175" s="168"/>
-      <c r="C175" s="169"/>
-      <c r="D175" s="169"/>
-      <c r="E175" s="169"/>
-      <c r="F175" s="169"/>
-      <c r="G175" s="181"/>
-      <c r="H175" s="168"/>
-      <c r="I175" s="169"/>
-      <c r="J175" s="170"/>
-      <c r="K175" s="171"/>
-      <c r="L175" s="172"/>
-      <c r="M175" s="182"/>
-      <c r="N175" s="153"/>
-      <c r="O175" s="154"/>
-      <c r="P175" s="155"/>
+      <c r="B175" s="148"/>
+      <c r="C175" s="149"/>
+      <c r="D175" s="149"/>
+      <c r="E175" s="149"/>
+      <c r="F175" s="149"/>
+      <c r="G175" s="150"/>
+      <c r="H175" s="148"/>
+      <c r="I175" s="149"/>
+      <c r="J175" s="161"/>
+      <c r="K175" s="165"/>
+      <c r="L175" s="166"/>
+      <c r="M175" s="172"/>
+      <c r="N175" s="154"/>
+      <c r="O175" s="155"/>
+      <c r="P175" s="156"/>
       <c r="Q175"/>
     </row>
     <row r="180" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Reports/SKI_B_SACVT.xlsx
+++ b/Reports/SKI_B_SACVT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vboxuser\Documents\GitHub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA539BB5-0BEB-4D82-89D6-35B8D1E19188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10D0C4-1C61-453B-834B-190AC115A0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2670" windowWidth="13320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28680" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЦТ" sheetId="14" r:id="rId1"/>
@@ -200,8 +200,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -932,7 +932,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1039,28 +1039,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,7 +1486,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1833,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A175" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130:P130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
